--- a/Framework_MUVT_FV.xlsx
+++ b/Framework_MUVT_FV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://creagov-my.sharepoint.com/personal/pasquale_garofalo_crea_gov_it/Documents/dal PC/Aquacrop_CNR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="8_{78D4974F-DC94-4CD0-852D-BD3857FF6E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B2686DB-C31F-461C-B721-638E719F4EC4}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="8_{78D4974F-DC94-4CD0-852D-BD3857FF6E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6330EB48-C64C-4FE6-AF21-73A67F93E8E7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BE5D2F57-60C9-4DE8-8F0C-65DB3B4B20AF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>Positive</t>
   </si>
@@ -318,6 +318,24 @@
   </si>
   <si>
     <t>Imobj (aggregated multi-objective value)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -758,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1332,6 +1350,10 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1401,25 +1423,25 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>yield</c:v>
+                  <c:v>a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>drainage</c:v>
+                  <c:v>b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>IrrUseEff</c:v>
+                  <c:v>c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>WUE</c:v>
+                  <c:v>d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BLUE_footprint</c:v>
+                  <c:v>e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>IRR_cost_Eff.</c:v>
+                  <c:v>f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Net_inc</c:v>
+                  <c:v>g</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>h</c:v>
@@ -1850,25 +1872,25 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>yield</c:v>
+                  <c:v>a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>drainage</c:v>
+                  <c:v>b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>IrrUseEff</c:v>
+                  <c:v>c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>WUE</c:v>
+                  <c:v>d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BLUE_footprint</c:v>
+                  <c:v>e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>IRR_cost_Eff.</c:v>
+                  <c:v>f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Net_inc</c:v>
+                  <c:v>g</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>h</c:v>
@@ -2307,25 +2329,25 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>yield</c:v>
+                  <c:v>a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>drainage</c:v>
+                  <c:v>b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>IrrUseEff</c:v>
+                  <c:v>c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>WUE</c:v>
+                  <c:v>d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BLUE_footprint</c:v>
+                  <c:v>e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>IRR_cost_Eff.</c:v>
+                  <c:v>f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Net_inc</c:v>
+                  <c:v>g</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>h</c:v>
@@ -2756,25 +2778,25 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>yield</c:v>
+                  <c:v>a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>drainage</c:v>
+                  <c:v>b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>IrrUseEff</c:v>
+                  <c:v>c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>WUE</c:v>
+                  <c:v>d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BLUE_footprint</c:v>
+                  <c:v>e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>IRR_cost_Eff.</c:v>
+                  <c:v>f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Net_inc</c:v>
+                  <c:v>g</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>h</c:v>
@@ -7236,7 +7258,7 @@
   <dimension ref="A2:S54"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7324,11 +7346,11 @@
     </row>
     <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B5" s="44"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="48"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="43"/>
       <c r="F5" s="61"/>
       <c r="G5" s="43"/>
@@ -7348,11 +7370,11 @@
     </row>
     <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B6" s="44"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="48"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="43"/>
       <c r="F6" s="44"/>
       <c r="G6" s="43"/>
@@ -7369,11 +7391,11 @@
     </row>
     <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="52" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B7" s="44"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="48"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="43"/>
       <c r="F7" s="44"/>
       <c r="G7" s="43"/>
@@ -7390,11 +7412,11 @@
     </row>
     <row r="8" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B8" s="44"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="48"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="43"/>
       <c r="F8" s="44"/>
       <c r="G8" s="43"/>
@@ -7411,11 +7433,11 @@
     </row>
     <row r="9" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B9" s="45"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="48"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="43"/>
       <c r="F9" s="44"/>
       <c r="G9" s="43"/>
@@ -7433,11 +7455,11 @@
     </row>
     <row r="10" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B10" s="45"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="48"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="43"/>
       <c r="F10" s="44"/>
       <c r="G10" s="43"/>
@@ -7455,11 +7477,11 @@
     </row>
     <row r="11" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="52" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B11" s="45"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="48"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="43"/>
       <c r="F11" s="44"/>
       <c r="G11" s="43"/>
@@ -8131,7 +8153,7 @@
     <row r="5" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="63" t="str">
         <f>IF(Input!A5="","",Input!A5)</f>
-        <v>yield</v>
+        <v>a</v>
       </c>
       <c r="B5" s="26" t="str">
         <f>IF(Input!B5="","",Input!B5)</f>
@@ -8164,7 +8186,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="93" t="str">
         <f>A5</f>
-        <v>yield</v>
+        <v>a</v>
       </c>
       <c r="K5" s="69" t="str">
         <f>IF(F5="","",IF(F5&lt;0.001,1,IF(F5&lt;0.01,0.66,IF(F5&lt;0.05,0.33,0))))</f>
@@ -8216,7 +8238,7 @@
       </c>
       <c r="W5" s="95" t="str">
         <f t="shared" ref="W5:W22" si="1">J5</f>
-        <v>yield</v>
+        <v>a</v>
       </c>
       <c r="X5" s="69" t="str">
         <f>IF(B5="","",SUM(P5,R5,T5,V5))</f>
@@ -8280,7 +8302,7 @@
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="str">
         <f>IF(Input!A6="","",Input!A6)</f>
-        <v>drainage</v>
+        <v>b</v>
       </c>
       <c r="B6" s="26" t="str">
         <f>IF(Input!B6="","",Input!B6)</f>
@@ -8313,7 +8335,7 @@
       <c r="I6" s="27"/>
       <c r="J6" s="93" t="str">
         <f t="shared" ref="J6:J22" si="3">A6</f>
-        <v>drainage</v>
+        <v>b</v>
       </c>
       <c r="K6" s="69" t="str">
         <f t="shared" ref="K6:K22" si="4">IF(F6="","",IF(F6&lt;0.001,1,IF(F6&lt;0.01,0.66,IF(F6&lt;0.05,0.33,0))))</f>
@@ -8365,7 +8387,7 @@
       </c>
       <c r="W6" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>drainage</v>
+        <v>b</v>
       </c>
       <c r="X6" s="69" t="str">
         <f t="shared" ref="X6:X10" si="12">IF(B6="","",SUM(P6,R6,T6,V6))</f>
@@ -8421,7 +8443,7 @@
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="str">
         <f>IF(Input!A7="","",Input!A7)</f>
-        <v>IrrUseEff</v>
+        <v>c</v>
       </c>
       <c r="B7" s="26" t="str">
         <f>IF(Input!B7="","",Input!B7)</f>
@@ -8454,7 +8476,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="93" t="str">
         <f t="shared" si="3"/>
-        <v>IrrUseEff</v>
+        <v>c</v>
       </c>
       <c r="K7" s="69" t="str">
         <f>IF(F7="","",IF(F7&lt;0.001,1,IF(F7&lt;0.01,0.66,IF(F7&lt;0.05,0.33,0))))</f>
@@ -8506,7 +8528,7 @@
       </c>
       <c r="W7" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>IrrUseEff</v>
+        <v>c</v>
       </c>
       <c r="X7" s="69" t="str">
         <f t="shared" si="12"/>
@@ -8563,7 +8585,7 @@
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="str">
         <f>IF(Input!A8="","",Input!A8)</f>
-        <v>WUE</v>
+        <v>d</v>
       </c>
       <c r="B8" s="26" t="str">
         <f>IF(Input!B8="","",Input!B8)</f>
@@ -8596,7 +8618,7 @@
       <c r="I8" s="27"/>
       <c r="J8" s="93" t="str">
         <f t="shared" si="3"/>
-        <v>WUE</v>
+        <v>d</v>
       </c>
       <c r="K8" s="69" t="str">
         <f t="shared" si="4"/>
@@ -8648,7 +8670,7 @@
       </c>
       <c r="W8" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>WUE</v>
+        <v>d</v>
       </c>
       <c r="X8" s="69" t="str">
         <f t="shared" si="12"/>
@@ -8710,7 +8732,7 @@
     <row r="9" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="str">
         <f>IF(Input!A9="","",Input!A9)</f>
-        <v>BLUE_footprint</v>
+        <v>e</v>
       </c>
       <c r="B9" s="26" t="str">
         <f>IF(Input!B9="","",Input!B9)</f>
@@ -8743,7 +8765,7 @@
       <c r="I9" s="27"/>
       <c r="J9" s="93" t="str">
         <f t="shared" si="3"/>
-        <v>BLUE_footprint</v>
+        <v>e</v>
       </c>
       <c r="K9" s="69" t="str">
         <f t="shared" si="4"/>
@@ -8795,7 +8817,7 @@
       </c>
       <c r="W9" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>BLUE_footprint</v>
+        <v>e</v>
       </c>
       <c r="X9" s="69" t="str">
         <f t="shared" si="12"/>
@@ -8854,7 +8876,7 @@
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="str">
         <f>IF(Input!A10="","",Input!A10)</f>
-        <v>IRR_cost_Eff.</v>
+        <v>f</v>
       </c>
       <c r="B10" s="26" t="str">
         <f>IF(Input!B10="","",Input!B10)</f>
@@ -8887,7 +8909,7 @@
       <c r="I10" s="27"/>
       <c r="J10" s="93" t="str">
         <f t="shared" si="3"/>
-        <v>IRR_cost_Eff.</v>
+        <v>f</v>
       </c>
       <c r="K10" s="69" t="str">
         <f t="shared" si="4"/>
@@ -8939,7 +8961,7 @@
       </c>
       <c r="W10" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>IRR_cost_Eff.</v>
+        <v>f</v>
       </c>
       <c r="X10" s="69" t="str">
         <f t="shared" si="12"/>
@@ -8996,7 +9018,7 @@
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="63" t="str">
         <f>IF(Input!A11="","",Input!A11)</f>
-        <v>Net_inc</v>
+        <v>g</v>
       </c>
       <c r="B11" s="26" t="str">
         <f>IF(Input!B11="","",Input!B11)</f>
@@ -9029,7 +9051,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="93" t="str">
         <f t="shared" si="3"/>
-        <v>Net_inc</v>
+        <v>g</v>
       </c>
       <c r="K11" s="69" t="str">
         <f t="shared" si="4"/>
@@ -9081,7 +9103,7 @@
       </c>
       <c r="W11" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>Net_inc</v>
+        <v>g</v>
       </c>
       <c r="X11" s="69" t="str">
         <f>IF(B11="","",SUM(P11,R11,T11,V11))</f>
@@ -10955,7 +10977,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="str">
         <f>Output!J5</f>
-        <v>yield</v>
+        <v>a</v>
       </c>
       <c r="B5" s="59" t="str">
         <f>Output!X5</f>
@@ -11003,7 +11025,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="str">
         <f>Output!J6</f>
-        <v>drainage</v>
+        <v>b</v>
       </c>
       <c r="B6" s="59" t="str">
         <f>Output!X6</f>
@@ -11049,7 +11071,7 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="str">
         <f>Output!J7</f>
-        <v>IrrUseEff</v>
+        <v>c</v>
       </c>
       <c r="B7" s="59" t="str">
         <f>Output!X7</f>
@@ -11095,7 +11117,7 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="str">
         <f>Output!J8</f>
-        <v>WUE</v>
+        <v>d</v>
       </c>
       <c r="B8" s="59" t="str">
         <f>Output!X8</f>
@@ -11141,7 +11163,7 @@
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="str">
         <f>Output!J9</f>
-        <v>BLUE_footprint</v>
+        <v>e</v>
       </c>
       <c r="B9" s="59" t="str">
         <f>Output!X9</f>
@@ -11190,7 +11212,7 @@
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="str">
         <f>Output!J10</f>
-        <v>IRR_cost_Eff.</v>
+        <v>f</v>
       </c>
       <c r="B10" s="59" t="str">
         <f>Output!X10</f>
@@ -11236,7 +11258,7 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="str">
         <f>Output!J11</f>
-        <v>Net_inc</v>
+        <v>g</v>
       </c>
       <c r="B11" s="59" t="str">
         <f>Output!X11</f>
@@ -11870,15 +11892,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000C80BC662B6C1641B5F722E620292A03" ma:contentTypeVersion="17" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="0c12b46951fb0b65d78d60f293601e60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="050c66b0-69c2-4bf8-9fd0-c3b666af1d53" xmlns:ns4="5be2eaf3-6471-4667-b101-18e4c244c534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c876bae8d418e822fb12ec15d2cc8f9" ns3:_="" ns4:_="">
     <xsd:import namespace="050c66b0-69c2-4bf8-9fd0-c3b666af1d53"/>
@@ -12125,6 +12138,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12134,14 +12156,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E12F13CE-A422-4656-9B9F-98D7C854B64B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90367F39-72FD-4769-8645-13CDEF69CBC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12156,6 +12170,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E12F13CE-A422-4656-9B9F-98D7C854B64B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
